--- a/Code/Results/Cases/Case_2_251/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_251/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9966758174919133</v>
+        <v>1.026050530594341</v>
       </c>
       <c r="D2">
-        <v>1.019341423740218</v>
+        <v>1.036784790796466</v>
       </c>
       <c r="E2">
-        <v>1.017949890838802</v>
+        <v>1.046692544700521</v>
       </c>
       <c r="F2">
-        <v>1.024062029402238</v>
+        <v>1.050358477651043</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042700823333479</v>
+        <v>1.032065972700086</v>
       </c>
       <c r="J2">
-        <v>1.018956410923947</v>
+        <v>1.031216133384383</v>
       </c>
       <c r="K2">
-        <v>1.030537720853828</v>
+        <v>1.039577541219736</v>
       </c>
       <c r="L2">
-        <v>1.029164693359994</v>
+        <v>1.049457268143794</v>
       </c>
       <c r="M2">
-        <v>1.035196018847996</v>
+        <v>1.05311297624636</v>
       </c>
       <c r="N2">
-        <v>1.01024249552176</v>
+        <v>1.014429922827338</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00066228458543</v>
+        <v>1.026900658436384</v>
       </c>
       <c r="D3">
-        <v>1.022361983163346</v>
+        <v>1.037452186196245</v>
       </c>
       <c r="E3">
-        <v>1.021783212296378</v>
+        <v>1.047592242606375</v>
       </c>
       <c r="F3">
-        <v>1.027845460357407</v>
+        <v>1.05123218634374</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043511836399219</v>
+        <v>1.032178456947</v>
       </c>
       <c r="J3">
-        <v>1.021134911323305</v>
+        <v>1.031706368123838</v>
       </c>
       <c r="K3">
-        <v>1.032716515207267</v>
+        <v>1.040054986912077</v>
       </c>
       <c r="L3">
-        <v>1.032144757710419</v>
+        <v>1.050168431362989</v>
       </c>
       <c r="M3">
-        <v>1.038134031361835</v>
+        <v>1.053798957428911</v>
       </c>
       <c r="N3">
-        <v>1.010976151738552</v>
+        <v>1.014593736074927</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003193574054743</v>
+        <v>1.0274513327783</v>
       </c>
       <c r="D4">
-        <v>1.024282009158424</v>
+        <v>1.037884373623767</v>
       </c>
       <c r="E4">
-        <v>1.024225754510244</v>
+        <v>1.048175716322523</v>
       </c>
       <c r="F4">
-        <v>1.030254011238866</v>
+        <v>1.051798546887034</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044016205867797</v>
+        <v>1.032249987199211</v>
       </c>
       <c r="J4">
-        <v>1.022515939174346</v>
+        <v>1.032023526314415</v>
       </c>
       <c r="K4">
-        <v>1.034095945215518</v>
+        <v>1.040363582255681</v>
       </c>
       <c r="L4">
-        <v>1.034040330417307</v>
+        <v>1.050629274882451</v>
       </c>
       <c r="M4">
-        <v>1.040000510173292</v>
+        <v>1.054243204433859</v>
       </c>
       <c r="N4">
-        <v>1.011441071436338</v>
+        <v>1.014699671813164</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004246549974616</v>
+        <v>1.027682974772709</v>
       </c>
       <c r="D5">
-        <v>1.025081154467852</v>
+        <v>1.038066144356828</v>
       </c>
       <c r="E5">
-        <v>1.025243822229299</v>
+        <v>1.048421320262802</v>
       </c>
       <c r="F5">
-        <v>1.031257378960945</v>
+        <v>1.052036885427652</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044223432432965</v>
+        <v>1.032279757514451</v>
       </c>
       <c r="J5">
-        <v>1.023089855097575</v>
+        <v>1.032156844904049</v>
       </c>
       <c r="K5">
-        <v>1.034668755200112</v>
+        <v>1.040493232056643</v>
       </c>
       <c r="L5">
-        <v>1.034829622825211</v>
+        <v>1.050823173178656</v>
       </c>
       <c r="M5">
-        <v>1.040777120808239</v>
+        <v>1.054430053189208</v>
       </c>
       <c r="N5">
-        <v>1.01163423536759</v>
+        <v>1.014744191817669</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.004422704115701</v>
+        <v>1.027721876561164</v>
       </c>
       <c r="D6">
-        <v>1.025214869624821</v>
+        <v>1.038096669051852</v>
       </c>
       <c r="E6">
-        <v>1.025414253798314</v>
+        <v>1.04846257646487</v>
       </c>
       <c r="F6">
-        <v>1.031425318261202</v>
+        <v>1.052076917570649</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044257946743222</v>
+        <v>1.032284738411414</v>
       </c>
       <c r="J6">
-        <v>1.023185832183019</v>
+        <v>1.032179228784311</v>
       </c>
       <c r="K6">
-        <v>1.034764520958576</v>
+        <v>1.040514995882612</v>
       </c>
       <c r="L6">
-        <v>1.034961708930534</v>
+        <v>1.050855738875253</v>
       </c>
       <c r="M6">
-        <v>1.040907051162455</v>
+        <v>1.054461430991709</v>
       </c>
       <c r="N6">
-        <v>1.011666535921311</v>
+        <v>1.014751666007517</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003207687419361</v>
+        <v>1.027454427447622</v>
       </c>
       <c r="D7">
-        <v>1.024292718657644</v>
+        <v>1.037886802144471</v>
       </c>
       <c r="E7">
-        <v>1.024239392092603</v>
+        <v>1.048178996872303</v>
       </c>
       <c r="F7">
-        <v>1.030267454011587</v>
+        <v>1.051801730635332</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044018993642202</v>
+        <v>1.032250386175173</v>
       </c>
       <c r="J7">
-        <v>1.022523633834438</v>
+        <v>1.03202530778325</v>
       </c>
       <c r="K7">
-        <v>1.03410362681191</v>
+        <v>1.040365314973162</v>
       </c>
       <c r="L7">
-        <v>1.034050906571991</v>
+        <v>1.050631865135452</v>
       </c>
       <c r="M7">
-        <v>1.04001091864419</v>
+        <v>1.054245700774968</v>
       </c>
       <c r="N7">
-        <v>1.011443661417243</v>
+        <v>1.014700266752633</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9980332729195397</v>
+        <v>1.026337713295068</v>
       </c>
       <c r="D8">
-        <v>1.020369510564443</v>
+        <v>1.037010269150452</v>
       </c>
       <c r="E8">
-        <v>1.019253400012428</v>
+        <v>1.046996329704573</v>
       </c>
       <c r="F8">
-        <v>1.025349031145285</v>
+        <v>1.050653540817656</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042979181916925</v>
+        <v>1.032104246652791</v>
       </c>
       <c r="J8">
-        <v>1.019698679975181</v>
+        <v>1.031381821482974</v>
       </c>
       <c r="K8">
-        <v>1.031280455680252</v>
+        <v>1.039738966637268</v>
       </c>
       <c r="L8">
-        <v>1.030178737507374</v>
+        <v>1.049697468742765</v>
       </c>
       <c r="M8">
-        <v>1.036196241566912</v>
+        <v>1.053344728967829</v>
       </c>
       <c r="N8">
-        <v>1.010492504627038</v>
+        <v>1.014485296931905</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9885286815921869</v>
+        <v>1.024374465252139</v>
       </c>
       <c r="D9">
-        <v>1.013181872492329</v>
+        <v>1.035468372878139</v>
       </c>
       <c r="E9">
-        <v>1.010163748061189</v>
+        <v>1.0449224236975</v>
       </c>
       <c r="F9">
-        <v>1.016365392132432</v>
+        <v>1.048638120734441</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040986985499394</v>
+        <v>1.031837150527536</v>
       </c>
       <c r="J9">
-        <v>1.014493127958563</v>
+        <v>1.030247536773591</v>
       </c>
       <c r="K9">
-        <v>1.026064642952341</v>
+        <v>1.038632685867692</v>
       </c>
       <c r="L9">
-        <v>1.023094050060045</v>
+        <v>1.04805616748194</v>
       </c>
       <c r="M9">
-        <v>1.02919841730459</v>
+        <v>1.051760015100542</v>
       </c>
       <c r="N9">
-        <v>1.008738563268591</v>
+        <v>1.014106034459082</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.981906816271367</v>
+        <v>1.023068777906863</v>
       </c>
       <c r="D10">
-        <v>1.008190313156737</v>
+        <v>1.034442340707651</v>
       </c>
       <c r="E10">
-        <v>1.003879757731319</v>
+        <v>1.043546720202966</v>
       </c>
       <c r="F10">
-        <v>1.010143338380951</v>
+        <v>1.047299886760564</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039546008382227</v>
+        <v>1.031652684636877</v>
       </c>
       <c r="J10">
-        <v>1.010857147381508</v>
+        <v>1.029491162818276</v>
       </c>
       <c r="K10">
-        <v>1.022413247000854</v>
+        <v>1.037893513862206</v>
       </c>
       <c r="L10">
-        <v>1.018179313513439</v>
+        <v>1.046965570168699</v>
       </c>
       <c r="M10">
-        <v>1.024331835396668</v>
+        <v>1.050705592108982</v>
       </c>
       <c r="N10">
-        <v>1.007512791351473</v>
+        <v>1.013852911172504</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9789656491363502</v>
+        <v>1.022504165361243</v>
       </c>
       <c r="D11">
-        <v>1.005977881013193</v>
+        <v>1.033998530072781</v>
       </c>
       <c r="E11">
-        <v>1.001100770488023</v>
+        <v>1.042952684607432</v>
       </c>
       <c r="F11">
-        <v>1.007389102299789</v>
+        <v>1.046721715825548</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038894004158265</v>
+        <v>1.031571298637296</v>
       </c>
       <c r="J11">
-        <v>1.009240439915855</v>
+        <v>1.029163615812932</v>
       </c>
       <c r="K11">
-        <v>1.02078793695803</v>
+        <v>1.037573069303482</v>
       </c>
       <c r="L11">
-        <v>1.01600195770362</v>
+        <v>1.046494203335785</v>
       </c>
       <c r="M11">
-        <v>1.022173003453398</v>
+        <v>1.050249522035635</v>
       </c>
       <c r="N11">
-        <v>1.006967638163375</v>
+        <v>1.013743244751682</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9778615148345963</v>
+        <v>1.022294558589736</v>
       </c>
       <c r="D12">
-        <v>1.005148084085147</v>
+        <v>1.033833751161605</v>
       </c>
       <c r="E12">
-        <v>1.000059387805223</v>
+        <v>1.042732283516555</v>
       </c>
       <c r="F12">
-        <v>1.00635660275265</v>
+        <v>1.046507153561802</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038647489345191</v>
+        <v>1.031540841875713</v>
       </c>
       <c r="J12">
-        <v>1.008633293216505</v>
+        <v>1.029041946644877</v>
       </c>
       <c r="K12">
-        <v>1.020177315104797</v>
+        <v>1.037453986448963</v>
       </c>
       <c r="L12">
-        <v>1.015185450126882</v>
+        <v>1.046319248806028</v>
       </c>
       <c r="M12">
-        <v>1.021363025221144</v>
+        <v>1.050080194321471</v>
       </c>
       <c r="N12">
-        <v>1.006762892939995</v>
+        <v>1.013702500834995</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9780988920950682</v>
+        <v>1.022339514704772</v>
       </c>
       <c r="D13">
-        <v>1.005326445936636</v>
+        <v>1.033869093505018</v>
       </c>
       <c r="E13">
-        <v>1.000283188892602</v>
+        <v>1.042779548948371</v>
       </c>
       <c r="F13">
-        <v>1.006578512430455</v>
+        <v>1.046553168988754</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038700565572748</v>
+        <v>1.031547385188228</v>
       </c>
       <c r="J13">
-        <v>1.008763832827719</v>
+        <v>1.029068045239345</v>
       </c>
       <c r="K13">
-        <v>1.020308612641982</v>
+        <v>1.037479532614413</v>
       </c>
       <c r="L13">
-        <v>1.015360949777436</v>
+        <v>1.046356771144002</v>
       </c>
       <c r="M13">
-        <v>1.021537140228104</v>
+        <v>1.050116512180184</v>
       </c>
       <c r="N13">
-        <v>1.006806914851946</v>
+        <v>1.013711240940173</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9788746221346921</v>
+        <v>1.022486836836038</v>
       </c>
       <c r="D14">
-        <v>1.005909454941769</v>
+        <v>1.03398490791498</v>
       </c>
       <c r="E14">
-        <v>1.001014878576296</v>
+        <v>1.042934461070407</v>
       </c>
       <c r="F14">
-        <v>1.007303951005929</v>
+        <v>1.046703976029351</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038873716228147</v>
+        <v>1.031568785686208</v>
       </c>
       <c r="J14">
-        <v>1.00919038986365</v>
+        <v>1.029153558668608</v>
       </c>
       <c r="K14">
-        <v>1.020737605296109</v>
+        <v>1.03756322700154</v>
       </c>
       <c r="L14">
-        <v>1.015934624891349</v>
+        <v>1.046479738836064</v>
       </c>
       <c r="M14">
-        <v>1.022106217534181</v>
+        <v>1.050235523773617</v>
       </c>
       <c r="N14">
-        <v>1.006950760318415</v>
+        <v>1.013739877026316</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9793510134894656</v>
+        <v>1.022577622208302</v>
       </c>
       <c r="D15">
-        <v>1.006267595584291</v>
+        <v>1.034056274605554</v>
       </c>
       <c r="E15">
-        <v>1.001464471831117</v>
+        <v>1.043029940747103</v>
       </c>
       <c r="F15">
-        <v>1.007749651596216</v>
+        <v>1.046796919274125</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03897982248735</v>
+        <v>1.03158194126127</v>
       </c>
       <c r="J15">
-        <v>1.00945231877796</v>
+        <v>1.029206245869914</v>
       </c>
       <c r="K15">
-        <v>1.021000998110134</v>
+        <v>1.037614786564556</v>
       </c>
       <c r="L15">
-        <v>1.016287048764436</v>
+        <v>1.046555520840212</v>
       </c>
       <c r="M15">
-        <v>1.022455761950861</v>
+        <v>1.05030886099741</v>
       </c>
       <c r="N15">
-        <v>1.007039087194501</v>
+        <v>1.013757519494738</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9821004089573311</v>
+        <v>1.023106265493226</v>
       </c>
       <c r="D16">
-        <v>1.008336041539214</v>
+        <v>1.03447180497294</v>
       </c>
       <c r="E16">
-        <v>1.00406293207729</v>
+        <v>1.043586179373167</v>
       </c>
       <c r="F16">
-        <v>1.010324826521891</v>
+        <v>1.047338285467764</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039588678917421</v>
+        <v>1.031658054176187</v>
       </c>
       <c r="J16">
-        <v>1.010963528634412</v>
+        <v>1.029512900460153</v>
       </c>
       <c r="K16">
-        <v>1.022520159386643</v>
+        <v>1.037914772858566</v>
       </c>
       <c r="L16">
-        <v>1.018322751176215</v>
+        <v>1.04699687167344</v>
       </c>
       <c r="M16">
-        <v>1.024473994527323</v>
+        <v>1.050735870690983</v>
       </c>
       <c r="N16">
-        <v>1.007548660742709</v>
+        <v>1.013860188095652</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.050000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9838048757096091</v>
+        <v>1.023438073627928</v>
       </c>
       <c r="D17">
-        <v>1.00961962684352</v>
+        <v>1.034732582778479</v>
       </c>
       <c r="E17">
-        <v>1.005677057569083</v>
+        <v>1.043935537032603</v>
       </c>
       <c r="F17">
-        <v>1.011923792280957</v>
+        <v>1.047678217729828</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039963007896888</v>
+        <v>1.0317053936975</v>
       </c>
       <c r="J17">
-        <v>1.011899956483232</v>
+        <v>1.029705249034772</v>
       </c>
       <c r="K17">
-        <v>1.023461065564809</v>
+        <v>1.038102846027929</v>
       </c>
       <c r="L17">
-        <v>1.019586274247064</v>
+        <v>1.047273953135197</v>
       </c>
       <c r="M17">
-        <v>1.025725935092106</v>
+        <v>1.051003858124187</v>
       </c>
       <c r="N17">
-        <v>1.007864389596767</v>
+        <v>1.013924573013205</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9847919757818273</v>
+        <v>1.023631684802228</v>
       </c>
       <c r="D18">
-        <v>1.01036341779854</v>
+        <v>1.034884735101551</v>
       </c>
       <c r="E18">
-        <v>1.006612986123565</v>
+        <v>1.044139470822353</v>
       </c>
       <c r="F18">
-        <v>1.012850678911698</v>
+        <v>1.047876619117005</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040178649355412</v>
+        <v>1.031732860201767</v>
       </c>
       <c r="J18">
-        <v>1.012442096644526</v>
+        <v>1.029817439527553</v>
       </c>
       <c r="K18">
-        <v>1.024005631168235</v>
+        <v>1.038212509344554</v>
       </c>
       <c r="L18">
-        <v>1.020318538853611</v>
+        <v>1.047435653806465</v>
       </c>
       <c r="M18">
-        <v>1.026451219379586</v>
+        <v>1.051160218992789</v>
       </c>
       <c r="N18">
-        <v>1.008047167211136</v>
+        <v>1.013962121598945</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9851273657738268</v>
+        <v>1.023697713563801</v>
       </c>
       <c r="D19">
-        <v>1.010616209453236</v>
+        <v>1.034936622696781</v>
       </c>
       <c r="E19">
-        <v>1.00693118263031</v>
+        <v>1.04420903395241</v>
       </c>
       <c r="F19">
-        <v>1.013165758509543</v>
+        <v>1.047944289948641</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040251723276374</v>
+        <v>1.031742200813856</v>
       </c>
       <c r="J19">
-        <v>1.012626271429967</v>
+        <v>1.029855693011182</v>
       </c>
       <c r="K19">
-        <v>1.024190601014958</v>
+        <v>1.038249895455914</v>
       </c>
       <c r="L19">
-        <v>1.02056743045416</v>
+        <v>1.047490803713926</v>
       </c>
       <c r="M19">
-        <v>1.026697692846223</v>
+        <v>1.051213542157924</v>
       </c>
       <c r="N19">
-        <v>1.008109257933075</v>
+        <v>1.013974923657061</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9836227394747166</v>
+        <v>1.023402466183172</v>
       </c>
       <c r="D20">
-        <v>1.009482419720971</v>
+        <v>1.034704599116129</v>
       </c>
       <c r="E20">
-        <v>1.00550445568943</v>
+        <v>1.043898037763721</v>
       </c>
       <c r="F20">
-        <v>1.01175283753183</v>
+        <v>1.047641733308537</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039923125860942</v>
+        <v>1.031700329694922</v>
       </c>
       <c r="J20">
-        <v>1.011799908753266</v>
+        <v>1.029684612173014</v>
       </c>
       <c r="K20">
-        <v>1.02336055659446</v>
+        <v>1.038082671330822</v>
       </c>
       <c r="L20">
-        <v>1.019451201530447</v>
+        <v>1.047244216243616</v>
       </c>
       <c r="M20">
-        <v>1.025592128294112</v>
+        <v>1.050975100598032</v>
       </c>
       <c r="N20">
-        <v>1.00783065842424</v>
+        <v>1.013917665743179</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.978646515332307</v>
+        <v>1.022443450940901</v>
       </c>
       <c r="D21">
-        <v>1.005737996945376</v>
+        <v>1.033950801452573</v>
       </c>
       <c r="E21">
-        <v>1.000799670195569</v>
+        <v>1.042888836390772</v>
       </c>
       <c r="F21">
-        <v>1.007090591993448</v>
+        <v>1.046659561684499</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038822848219687</v>
+        <v>1.031562490016927</v>
       </c>
       <c r="J21">
-        <v>1.009064964739978</v>
+        <v>1.02912837718556</v>
       </c>
       <c r="K21">
-        <v>1.02061147058371</v>
+        <v>1.037538582611228</v>
       </c>
       <c r="L21">
-        <v>1.01576590840133</v>
+        <v>1.046443524256656</v>
       </c>
       <c r="M21">
-        <v>1.021938864694122</v>
+        <v>1.050200475686788</v>
       </c>
       <c r="N21">
-        <v>1.006908464302273</v>
+        <v>1.013731444655488</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9754500378662269</v>
+        <v>1.021841148789649</v>
       </c>
       <c r="D22">
-        <v>1.003337259556451</v>
+        <v>1.033477277091565</v>
       </c>
       <c r="E22">
-        <v>0.9977884529489003</v>
+        <v>1.042255759791312</v>
       </c>
       <c r="F22">
-        <v>1.004104324485799</v>
+        <v>1.046043167278541</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038105936524192</v>
+        <v>1.031474515307228</v>
       </c>
       <c r="J22">
-        <v>1.007306892321173</v>
+        <v>1.028778629783475</v>
       </c>
       <c r="K22">
-        <v>1.018842893320632</v>
+        <v>1.037196172126598</v>
       </c>
       <c r="L22">
-        <v>1.013403848696243</v>
+        <v>1.04594086247674</v>
       </c>
       <c r="M22">
-        <v>1.019594910042348</v>
+        <v>1.049713884648793</v>
       </c>
       <c r="N22">
-        <v>1.006315571839699</v>
+        <v>1.01361430864868</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9771511663970276</v>
+        <v>1.022160376665953</v>
       </c>
       <c r="D23">
-        <v>1.004614456297594</v>
+        <v>1.033728261079399</v>
       </c>
       <c r="E23">
-        <v>0.9993899435581001</v>
+        <v>1.042591227779217</v>
       </c>
       <c r="F23">
-        <v>1.005692759096403</v>
+        <v>1.046369821321522</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038488407356499</v>
+        <v>1.031521276270325</v>
       </c>
       <c r="J23">
-        <v>1.008242625426104</v>
+        <v>1.028964039032247</v>
       </c>
       <c r="K23">
-        <v>1.01978434465711</v>
+        <v>1.037377720316617</v>
       </c>
       <c r="L23">
-        <v>1.014660403521752</v>
+        <v>1.046207259963685</v>
       </c>
       <c r="M23">
-        <v>1.020842060360678</v>
+        <v>1.049971792920496</v>
       </c>
       <c r="N23">
-        <v>1.006631145883341</v>
+        <v>1.013676409387535</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9837050608585213</v>
+        <v>1.023418555429041</v>
       </c>
       <c r="D24">
-        <v>1.009544432840699</v>
+        <v>1.034717243589655</v>
       </c>
       <c r="E24">
-        <v>1.005582464211402</v>
+        <v>1.043914981576963</v>
       </c>
       <c r="F24">
-        <v>1.011830102402942</v>
+        <v>1.047658218663145</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039941155166384</v>
+        <v>1.031702618350397</v>
       </c>
       <c r="J24">
-        <v>1.011845128550166</v>
+        <v>1.029693937092494</v>
       </c>
       <c r="K24">
-        <v>1.023405985383719</v>
+        <v>1.038091787521223</v>
       </c>
       <c r="L24">
-        <v>1.019512249660389</v>
+        <v>1.047257652806347</v>
       </c>
       <c r="M24">
-        <v>1.025652605103364</v>
+        <v>1.050988094737098</v>
       </c>
       <c r="N24">
-        <v>1.007845904352548</v>
+        <v>1.013920786859923</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9910342000011436</v>
+        <v>1.024881464179338</v>
       </c>
       <c r="D25">
-        <v>1.015074094145697</v>
+        <v>1.03586666309527</v>
       </c>
       <c r="E25">
-        <v>1.012551627107179</v>
+        <v>1.045457369668054</v>
       </c>
       <c r="F25">
-        <v>1.018727406721665</v>
+        <v>1.049158215048448</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041521495964648</v>
+        <v>1.031907332497924</v>
       </c>
       <c r="J25">
-        <v>1.015867112857668</v>
+        <v>1.03054081422287</v>
       </c>
       <c r="K25">
-        <v>1.027442825711653</v>
+        <v>1.038918982890455</v>
       </c>
       <c r="L25">
-        <v>1.024958170536693</v>
+        <v>1.048479854707184</v>
       </c>
       <c r="M25">
-        <v>1.031041796927892</v>
+        <v>1.052169346664247</v>
       </c>
       <c r="N25">
-        <v>1.00920163766798</v>
+        <v>1.01420413447273</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_251/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_251/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026050530594341</v>
+        <v>0.9966758174919136</v>
       </c>
       <c r="D2">
-        <v>1.036784790796466</v>
+        <v>1.019341423740218</v>
       </c>
       <c r="E2">
-        <v>1.046692544700521</v>
+        <v>1.017949890838802</v>
       </c>
       <c r="F2">
-        <v>1.050358477651043</v>
+        <v>1.024062029402238</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032065972700086</v>
+        <v>1.042700823333479</v>
       </c>
       <c r="J2">
-        <v>1.031216133384383</v>
+        <v>1.018956410923947</v>
       </c>
       <c r="K2">
-        <v>1.039577541219736</v>
+        <v>1.030537720853828</v>
       </c>
       <c r="L2">
-        <v>1.049457268143794</v>
+        <v>1.029164693359994</v>
       </c>
       <c r="M2">
-        <v>1.05311297624636</v>
+        <v>1.035196018847996</v>
       </c>
       <c r="N2">
-        <v>1.014429922827338</v>
+        <v>1.01024249552176</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026900658436384</v>
+        <v>1.00066228458543</v>
       </c>
       <c r="D3">
-        <v>1.037452186196245</v>
+        <v>1.022361983163346</v>
       </c>
       <c r="E3">
-        <v>1.047592242606375</v>
+        <v>1.021783212296377</v>
       </c>
       <c r="F3">
-        <v>1.05123218634374</v>
+        <v>1.027845460357407</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032178456947</v>
+        <v>1.043511836399219</v>
       </c>
       <c r="J3">
-        <v>1.031706368123838</v>
+        <v>1.021134911323304</v>
       </c>
       <c r="K3">
-        <v>1.040054986912077</v>
+        <v>1.032716515207267</v>
       </c>
       <c r="L3">
-        <v>1.050168431362989</v>
+        <v>1.032144757710418</v>
       </c>
       <c r="M3">
-        <v>1.053798957428911</v>
+        <v>1.038134031361835</v>
       </c>
       <c r="N3">
-        <v>1.014593736074927</v>
+        <v>1.010976151738552</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0274513327783</v>
+        <v>1.003193574054744</v>
       </c>
       <c r="D4">
-        <v>1.037884373623767</v>
+        <v>1.024282009158424</v>
       </c>
       <c r="E4">
-        <v>1.048175716322523</v>
+        <v>1.024225754510245</v>
       </c>
       <c r="F4">
-        <v>1.051798546887034</v>
+        <v>1.030254011238866</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032249987199211</v>
+        <v>1.044016205867797</v>
       </c>
       <c r="J4">
-        <v>1.032023526314415</v>
+        <v>1.022515939174346</v>
       </c>
       <c r="K4">
-        <v>1.040363582255681</v>
+        <v>1.034095945215518</v>
       </c>
       <c r="L4">
-        <v>1.050629274882451</v>
+        <v>1.034040330417307</v>
       </c>
       <c r="M4">
-        <v>1.054243204433859</v>
+        <v>1.040000510173292</v>
       </c>
       <c r="N4">
-        <v>1.014699671813164</v>
+        <v>1.011441071436338</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027682974772709</v>
+        <v>1.004246549974616</v>
       </c>
       <c r="D5">
-        <v>1.038066144356828</v>
+        <v>1.025081154467852</v>
       </c>
       <c r="E5">
-        <v>1.048421320262802</v>
+        <v>1.025243822229299</v>
       </c>
       <c r="F5">
-        <v>1.052036885427652</v>
+        <v>1.031257378960945</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032279757514451</v>
+        <v>1.044223432432965</v>
       </c>
       <c r="J5">
-        <v>1.032156844904049</v>
+        <v>1.023089855097575</v>
       </c>
       <c r="K5">
-        <v>1.040493232056643</v>
+        <v>1.034668755200112</v>
       </c>
       <c r="L5">
-        <v>1.050823173178656</v>
+        <v>1.034829622825211</v>
       </c>
       <c r="M5">
-        <v>1.054430053189208</v>
+        <v>1.040777120808239</v>
       </c>
       <c r="N5">
-        <v>1.014744191817669</v>
+        <v>1.01163423536759</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027721876561164</v>
+        <v>1.0044227041157</v>
       </c>
       <c r="D6">
-        <v>1.038096669051852</v>
+        <v>1.025214869624821</v>
       </c>
       <c r="E6">
-        <v>1.04846257646487</v>
+        <v>1.025414253798314</v>
       </c>
       <c r="F6">
-        <v>1.052076917570649</v>
+        <v>1.031425318261202</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032284738411414</v>
+        <v>1.044257946743222</v>
       </c>
       <c r="J6">
-        <v>1.032179228784311</v>
+        <v>1.023185832183019</v>
       </c>
       <c r="K6">
-        <v>1.040514995882612</v>
+        <v>1.034764520958576</v>
       </c>
       <c r="L6">
-        <v>1.050855738875253</v>
+        <v>1.034961708930535</v>
       </c>
       <c r="M6">
-        <v>1.054461430991709</v>
+        <v>1.040907051162455</v>
       </c>
       <c r="N6">
-        <v>1.014751666007517</v>
+        <v>1.011666535921311</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027454427447622</v>
+        <v>1.003207687419361</v>
       </c>
       <c r="D7">
-        <v>1.037886802144471</v>
+        <v>1.024292718657644</v>
       </c>
       <c r="E7">
-        <v>1.048178996872303</v>
+        <v>1.024239392092603</v>
       </c>
       <c r="F7">
-        <v>1.051801730635332</v>
+        <v>1.030267454011587</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032250386175173</v>
+        <v>1.044018993642202</v>
       </c>
       <c r="J7">
-        <v>1.03202530778325</v>
+        <v>1.022523633834438</v>
       </c>
       <c r="K7">
-        <v>1.040365314973162</v>
+        <v>1.03410362681191</v>
       </c>
       <c r="L7">
-        <v>1.050631865135452</v>
+        <v>1.034050906571992</v>
       </c>
       <c r="M7">
-        <v>1.054245700774968</v>
+        <v>1.04001091864419</v>
       </c>
       <c r="N7">
-        <v>1.014700266752633</v>
+        <v>1.011443661417243</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026337713295068</v>
+        <v>0.9980332729195395</v>
       </c>
       <c r="D8">
-        <v>1.037010269150452</v>
+        <v>1.020369510564443</v>
       </c>
       <c r="E8">
-        <v>1.046996329704573</v>
+        <v>1.019253400012428</v>
       </c>
       <c r="F8">
-        <v>1.050653540817656</v>
+        <v>1.025349031145285</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032104246652791</v>
+        <v>1.042979181916925</v>
       </c>
       <c r="J8">
-        <v>1.031381821482974</v>
+        <v>1.019698679975181</v>
       </c>
       <c r="K8">
-        <v>1.039738966637268</v>
+        <v>1.031280455680252</v>
       </c>
       <c r="L8">
-        <v>1.049697468742765</v>
+        <v>1.030178737507374</v>
       </c>
       <c r="M8">
-        <v>1.053344728967829</v>
+        <v>1.036196241566912</v>
       </c>
       <c r="N8">
-        <v>1.014485296931905</v>
+        <v>1.010492504627038</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024374465252139</v>
+        <v>0.9885286815921879</v>
       </c>
       <c r="D9">
-        <v>1.035468372878139</v>
+        <v>1.01318187249233</v>
       </c>
       <c r="E9">
-        <v>1.0449224236975</v>
+        <v>1.010163748061189</v>
       </c>
       <c r="F9">
-        <v>1.048638120734441</v>
+        <v>1.016365392132432</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031837150527536</v>
+        <v>1.040986985499394</v>
       </c>
       <c r="J9">
-        <v>1.030247536773591</v>
+        <v>1.014493127958564</v>
       </c>
       <c r="K9">
-        <v>1.038632685867692</v>
+        <v>1.026064642952342</v>
       </c>
       <c r="L9">
-        <v>1.04805616748194</v>
+        <v>1.023094050060046</v>
       </c>
       <c r="M9">
-        <v>1.051760015100542</v>
+        <v>1.029198417304591</v>
       </c>
       <c r="N9">
-        <v>1.014106034459082</v>
+        <v>1.008738563268592</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023068777906863</v>
+        <v>0.9819068162713668</v>
       </c>
       <c r="D10">
-        <v>1.034442340707651</v>
+        <v>1.008190313156737</v>
       </c>
       <c r="E10">
-        <v>1.043546720202966</v>
+        <v>1.003879757731319</v>
       </c>
       <c r="F10">
-        <v>1.047299886760564</v>
+        <v>1.010143338380951</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031652684636877</v>
+        <v>1.039546008382227</v>
       </c>
       <c r="J10">
-        <v>1.029491162818276</v>
+        <v>1.010857147381508</v>
       </c>
       <c r="K10">
-        <v>1.037893513862206</v>
+        <v>1.022413247000854</v>
       </c>
       <c r="L10">
-        <v>1.046965570168699</v>
+        <v>1.018179313513439</v>
       </c>
       <c r="M10">
-        <v>1.050705592108982</v>
+        <v>1.024331835396668</v>
       </c>
       <c r="N10">
-        <v>1.013852911172504</v>
+        <v>1.007512791351473</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022504165361243</v>
+        <v>0.9789656491363503</v>
       </c>
       <c r="D11">
-        <v>1.033998530072781</v>
+        <v>1.005977881013193</v>
       </c>
       <c r="E11">
-        <v>1.042952684607432</v>
+        <v>1.001100770488023</v>
       </c>
       <c r="F11">
-        <v>1.046721715825548</v>
+        <v>1.007389102299789</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031571298637296</v>
+        <v>1.038894004158265</v>
       </c>
       <c r="J11">
-        <v>1.029163615812932</v>
+        <v>1.009240439915856</v>
       </c>
       <c r="K11">
-        <v>1.037573069303482</v>
+        <v>1.02078793695803</v>
       </c>
       <c r="L11">
-        <v>1.046494203335785</v>
+        <v>1.01600195770362</v>
       </c>
       <c r="M11">
-        <v>1.050249522035635</v>
+        <v>1.022173003453398</v>
       </c>
       <c r="N11">
-        <v>1.013743244751682</v>
+        <v>1.006967638163375</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022294558589736</v>
+        <v>0.9778615148345968</v>
       </c>
       <c r="D12">
-        <v>1.033833751161605</v>
+        <v>1.005148084085147</v>
       </c>
       <c r="E12">
-        <v>1.042732283516555</v>
+        <v>1.000059387805224</v>
       </c>
       <c r="F12">
-        <v>1.046507153561802</v>
+        <v>1.006356602752651</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031540841875713</v>
+        <v>1.038647489345191</v>
       </c>
       <c r="J12">
-        <v>1.029041946644877</v>
+        <v>1.008633293216506</v>
       </c>
       <c r="K12">
-        <v>1.037453986448963</v>
+        <v>1.020177315104798</v>
       </c>
       <c r="L12">
-        <v>1.046319248806028</v>
+        <v>1.015185450126883</v>
       </c>
       <c r="M12">
-        <v>1.050080194321471</v>
+        <v>1.021363025221145</v>
       </c>
       <c r="N12">
-        <v>1.013702500834995</v>
+        <v>1.006762892939995</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022339514704772</v>
+        <v>0.9780988920950682</v>
       </c>
       <c r="D13">
-        <v>1.033869093505018</v>
+        <v>1.005326445936636</v>
       </c>
       <c r="E13">
-        <v>1.042779548948371</v>
+        <v>1.000283188892602</v>
       </c>
       <c r="F13">
-        <v>1.046553168988754</v>
+        <v>1.006578512430455</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031547385188228</v>
+        <v>1.038700565572748</v>
       </c>
       <c r="J13">
-        <v>1.029068045239345</v>
+        <v>1.008763832827719</v>
       </c>
       <c r="K13">
-        <v>1.037479532614413</v>
+        <v>1.020308612641982</v>
       </c>
       <c r="L13">
-        <v>1.046356771144002</v>
+        <v>1.015360949777437</v>
       </c>
       <c r="M13">
-        <v>1.050116512180184</v>
+        <v>1.021537140228104</v>
       </c>
       <c r="N13">
-        <v>1.013711240940173</v>
+        <v>1.006806914851946</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022486836836038</v>
+        <v>0.9788746221346928</v>
       </c>
       <c r="D14">
-        <v>1.03398490791498</v>
+        <v>1.00590945494177</v>
       </c>
       <c r="E14">
-        <v>1.042934461070407</v>
+        <v>1.001014878576296</v>
       </c>
       <c r="F14">
-        <v>1.046703976029351</v>
+        <v>1.00730395100593</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031568785686208</v>
+        <v>1.038873716228148</v>
       </c>
       <c r="J14">
-        <v>1.029153558668608</v>
+        <v>1.009190389863651</v>
       </c>
       <c r="K14">
-        <v>1.03756322700154</v>
+        <v>1.020737605296109</v>
       </c>
       <c r="L14">
-        <v>1.046479738836064</v>
+        <v>1.015934624891349</v>
       </c>
       <c r="M14">
-        <v>1.050235523773617</v>
+        <v>1.022106217534181</v>
       </c>
       <c r="N14">
-        <v>1.013739877026316</v>
+        <v>1.006950760318415</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022577622208302</v>
+        <v>0.9793510134894649</v>
       </c>
       <c r="D15">
-        <v>1.034056274605554</v>
+        <v>1.00626759558429</v>
       </c>
       <c r="E15">
-        <v>1.043029940747103</v>
+        <v>1.001464471831116</v>
       </c>
       <c r="F15">
-        <v>1.046796919274125</v>
+        <v>1.007749651596216</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03158194126127</v>
+        <v>1.038979822487349</v>
       </c>
       <c r="J15">
-        <v>1.029206245869914</v>
+        <v>1.00945231877796</v>
       </c>
       <c r="K15">
-        <v>1.037614786564556</v>
+        <v>1.021000998110134</v>
       </c>
       <c r="L15">
-        <v>1.046555520840212</v>
+        <v>1.016287048764436</v>
       </c>
       <c r="M15">
-        <v>1.05030886099741</v>
+        <v>1.02245576195086</v>
       </c>
       <c r="N15">
-        <v>1.013757519494738</v>
+        <v>1.0070390871945</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023106265493226</v>
+        <v>0.9821004089573311</v>
       </c>
       <c r="D16">
-        <v>1.03447180497294</v>
+        <v>1.008336041539214</v>
       </c>
       <c r="E16">
-        <v>1.043586179373167</v>
+        <v>1.00406293207729</v>
       </c>
       <c r="F16">
-        <v>1.047338285467764</v>
+        <v>1.010324826521891</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031658054176187</v>
+        <v>1.039588678917421</v>
       </c>
       <c r="J16">
-        <v>1.029512900460153</v>
+        <v>1.010963528634412</v>
       </c>
       <c r="K16">
-        <v>1.037914772858566</v>
+        <v>1.022520159386644</v>
       </c>
       <c r="L16">
-        <v>1.04699687167344</v>
+        <v>1.018322751176215</v>
       </c>
       <c r="M16">
-        <v>1.050735870690983</v>
+        <v>1.024473994527323</v>
       </c>
       <c r="N16">
-        <v>1.013860188095652</v>
+        <v>1.007548660742709</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023438073627928</v>
+        <v>0.9838048757096082</v>
       </c>
       <c r="D17">
-        <v>1.034732582778479</v>
+        <v>1.009619626843518</v>
       </c>
       <c r="E17">
-        <v>1.043935537032603</v>
+        <v>1.005677057569083</v>
       </c>
       <c r="F17">
-        <v>1.047678217729828</v>
+        <v>1.011923792280956</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0317053936975</v>
+        <v>1.039963007896887</v>
       </c>
       <c r="J17">
-        <v>1.029705249034772</v>
+        <v>1.011899956483231</v>
       </c>
       <c r="K17">
-        <v>1.038102846027929</v>
+        <v>1.023461065564808</v>
       </c>
       <c r="L17">
-        <v>1.047273953135197</v>
+        <v>1.019586274247064</v>
       </c>
       <c r="M17">
-        <v>1.051003858124187</v>
+        <v>1.025725935092105</v>
       </c>
       <c r="N17">
-        <v>1.013924573013205</v>
+        <v>1.007864389596767</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023631684802228</v>
+        <v>0.9847919757818274</v>
       </c>
       <c r="D18">
-        <v>1.034884735101551</v>
+        <v>1.01036341779854</v>
       </c>
       <c r="E18">
-        <v>1.044139470822353</v>
+        <v>1.006612986123566</v>
       </c>
       <c r="F18">
-        <v>1.047876619117005</v>
+        <v>1.012850678911698</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031732860201767</v>
+        <v>1.040178649355412</v>
       </c>
       <c r="J18">
-        <v>1.029817439527553</v>
+        <v>1.012442096644526</v>
       </c>
       <c r="K18">
-        <v>1.038212509344554</v>
+        <v>1.024005631168235</v>
       </c>
       <c r="L18">
-        <v>1.047435653806465</v>
+        <v>1.020318538853612</v>
       </c>
       <c r="M18">
-        <v>1.051160218992789</v>
+        <v>1.026451219379586</v>
       </c>
       <c r="N18">
-        <v>1.013962121598945</v>
+        <v>1.008047167211137</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023697713563801</v>
+        <v>0.9851273657738269</v>
       </c>
       <c r="D19">
-        <v>1.034936622696781</v>
+        <v>1.010616209453236</v>
       </c>
       <c r="E19">
-        <v>1.04420903395241</v>
+        <v>1.00693118263031</v>
       </c>
       <c r="F19">
-        <v>1.047944289948641</v>
+        <v>1.013165758509543</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031742200813856</v>
+        <v>1.040251723276375</v>
       </c>
       <c r="J19">
-        <v>1.029855693011182</v>
+        <v>1.012626271429967</v>
       </c>
       <c r="K19">
-        <v>1.038249895455914</v>
+        <v>1.024190601014958</v>
       </c>
       <c r="L19">
-        <v>1.047490803713926</v>
+        <v>1.02056743045416</v>
       </c>
       <c r="M19">
-        <v>1.051213542157924</v>
+        <v>1.026697692846223</v>
       </c>
       <c r="N19">
-        <v>1.013974923657061</v>
+        <v>1.008109257933075</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023402466183172</v>
+        <v>0.9836227394747159</v>
       </c>
       <c r="D20">
-        <v>1.034704599116129</v>
+        <v>1.00948241972097</v>
       </c>
       <c r="E20">
-        <v>1.043898037763721</v>
+        <v>1.005504455689429</v>
       </c>
       <c r="F20">
-        <v>1.047641733308537</v>
+        <v>1.011752837531829</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031700329694922</v>
+        <v>1.039923125860941</v>
       </c>
       <c r="J20">
-        <v>1.029684612173014</v>
+        <v>1.011799908753266</v>
       </c>
       <c r="K20">
-        <v>1.038082671330822</v>
+        <v>1.02336055659446</v>
       </c>
       <c r="L20">
-        <v>1.047244216243616</v>
+        <v>1.019451201530446</v>
       </c>
       <c r="M20">
-        <v>1.050975100598032</v>
+        <v>1.025592128294111</v>
       </c>
       <c r="N20">
-        <v>1.013917665743179</v>
+        <v>1.00783065842424</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022443450940901</v>
+        <v>0.9786465153323067</v>
       </c>
       <c r="D21">
-        <v>1.033950801452573</v>
+        <v>1.005737996945375</v>
       </c>
       <c r="E21">
-        <v>1.042888836390772</v>
+        <v>1.000799670195568</v>
       </c>
       <c r="F21">
-        <v>1.046659561684499</v>
+        <v>1.007090591993447</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031562490016927</v>
+        <v>1.038822848219687</v>
       </c>
       <c r="J21">
-        <v>1.02912837718556</v>
+        <v>1.009064964739978</v>
       </c>
       <c r="K21">
-        <v>1.037538582611228</v>
+        <v>1.020611470583709</v>
       </c>
       <c r="L21">
-        <v>1.046443524256656</v>
+        <v>1.01576590840133</v>
       </c>
       <c r="M21">
-        <v>1.050200475686788</v>
+        <v>1.021938864694121</v>
       </c>
       <c r="N21">
-        <v>1.013731444655488</v>
+        <v>1.006908464302273</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021841148789649</v>
+        <v>0.9754500378662266</v>
       </c>
       <c r="D22">
-        <v>1.033477277091565</v>
+        <v>1.003337259556451</v>
       </c>
       <c r="E22">
-        <v>1.042255759791312</v>
+        <v>0.9977884529489001</v>
       </c>
       <c r="F22">
-        <v>1.046043167278541</v>
+        <v>1.004104324485799</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031474515307228</v>
+        <v>1.038105936524192</v>
       </c>
       <c r="J22">
-        <v>1.028778629783475</v>
+        <v>1.007306892321173</v>
       </c>
       <c r="K22">
-        <v>1.037196172126598</v>
+        <v>1.018842893320632</v>
       </c>
       <c r="L22">
-        <v>1.04594086247674</v>
+        <v>1.013403848696243</v>
       </c>
       <c r="M22">
-        <v>1.049713884648793</v>
+        <v>1.019594910042348</v>
       </c>
       <c r="N22">
-        <v>1.01361430864868</v>
+        <v>1.006315571839699</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022160376665953</v>
+        <v>0.9771511663970278</v>
       </c>
       <c r="D23">
-        <v>1.033728261079399</v>
+        <v>1.004614456297594</v>
       </c>
       <c r="E23">
-        <v>1.042591227779217</v>
+        <v>0.9993899435581002</v>
       </c>
       <c r="F23">
-        <v>1.046369821321522</v>
+        <v>1.005692759096403</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031521276270325</v>
+        <v>1.038488407356499</v>
       </c>
       <c r="J23">
-        <v>1.028964039032247</v>
+        <v>1.008242625426105</v>
       </c>
       <c r="K23">
-        <v>1.037377720316617</v>
+        <v>1.01978434465711</v>
       </c>
       <c r="L23">
-        <v>1.046207259963685</v>
+        <v>1.014660403521752</v>
       </c>
       <c r="M23">
-        <v>1.049971792920496</v>
+        <v>1.020842060360678</v>
       </c>
       <c r="N23">
-        <v>1.013676409387535</v>
+        <v>1.006631145883341</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023418555429041</v>
+        <v>0.9837050608585223</v>
       </c>
       <c r="D24">
-        <v>1.034717243589655</v>
+        <v>1.0095444328407</v>
       </c>
       <c r="E24">
-        <v>1.043914981576963</v>
+        <v>1.005582464211404</v>
       </c>
       <c r="F24">
-        <v>1.047658218663145</v>
+        <v>1.011830102402944</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031702618350397</v>
+        <v>1.039941155166384</v>
       </c>
       <c r="J24">
-        <v>1.029693937092494</v>
+        <v>1.011845128550167</v>
       </c>
       <c r="K24">
-        <v>1.038091787521223</v>
+        <v>1.023405985383721</v>
       </c>
       <c r="L24">
-        <v>1.047257652806347</v>
+        <v>1.01951224966039</v>
       </c>
       <c r="M24">
-        <v>1.050988094737098</v>
+        <v>1.025652605103365</v>
       </c>
       <c r="N24">
-        <v>1.013920786859923</v>
+        <v>1.007845904352548</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024881464179338</v>
+        <v>0.9910342000011434</v>
       </c>
       <c r="D25">
-        <v>1.03586666309527</v>
+        <v>1.015074094145697</v>
       </c>
       <c r="E25">
-        <v>1.045457369668054</v>
+        <v>1.012551627107179</v>
       </c>
       <c r="F25">
-        <v>1.049158215048448</v>
+        <v>1.018727406721664</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031907332497924</v>
+        <v>1.041521495964648</v>
       </c>
       <c r="J25">
-        <v>1.03054081422287</v>
+        <v>1.015867112857667</v>
       </c>
       <c r="K25">
-        <v>1.038918982890455</v>
+        <v>1.027442825711652</v>
       </c>
       <c r="L25">
-        <v>1.048479854707184</v>
+        <v>1.024958170536693</v>
       </c>
       <c r="M25">
-        <v>1.052169346664247</v>
+        <v>1.031041796927891</v>
       </c>
       <c r="N25">
-        <v>1.01420413447273</v>
+        <v>1.00920163766798</v>
       </c>
     </row>
   </sheetData>
